--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/20022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/20022026.xlsx
@@ -1,118 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viernes, 20 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
-*Oración de la mañana*
-Oración de la Mañana
-Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
-Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
-Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
-En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -136,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -482,193 +456,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>viernes, 20 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 9, 14-15 En aquel tiempo, los discípulos de Juan fueron a ver a Jesús y le preguntaron: “¿Por qué tus discípulos no ayunan, mientras nosotros y los fariseos sí ayunamos?” Jesús les respondió: “¿Cómo pueden llevar luto los amigos del esposo, mientras él está con ellos? Pero ya vendrán días en que les quitarán al esposo, y entonces sí ayunarán”.
+*Oración de la mañana*
+Oración de la Mañana
+Amado Jesús, tú que eres el esposo eterno de nuestras almas, guíanos en este día. Enséñanos a estar presentes y a disfrutar de tu compañía en cada momento, en lugar de vivir en el luto de lo que aún no ha sucedido. Haznos entender que cada encuentro contigo es una celebración de tu amor y gracia.
+Padre Dios, te agradecemos por este nuevo día, por la oportunidad de vivir y amar, de aprender y crecer. Ayúdanos a recordar que cada día es un regalo tuyo y que debemos vivirlo al máximo, no en ayuno y tristeza, sino en alegría y gratitud, porque Tú estás con nosotros.
+Espíritu Santo, fuente inagotable de sabiduría y fortaleza, danos el discernimiento para entender el mensaje de las enseñanzas de Jesús. En los días de prueba, cuando parece que el esposo ha sido quitado, recuérdanos la promesa de su presencia constante y renueva en nosotros el gozo de tu salvación.
+En la unidad de la Trinidad, confiamos nuestro día, nuestras vidas y nuestro mundo. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>